--- a/data_C.xlsx
+++ b/data_C.xlsx
@@ -918,7 +918,7 @@
           <t>#60</t>
         </is>
       </c>
-      <c r="AC1" t="inlineStr">
+      <c r="AC1" s="16" t="inlineStr">
         <is>
           <t>#61</t>
         </is>
@@ -1180,7 +1180,7 @@
       <c r="AB9" s="16" t="n">
         <v>426167765</v>
       </c>
-      <c r="AC9" t="n">
+      <c r="AC9" s="16" t="n">
         <v>341886090</v>
       </c>
     </row>
@@ -1269,7 +1269,7 @@
       <c r="AB10" s="16" t="n">
         <v>554151990</v>
       </c>
-      <c r="AC10" t="n">
+      <c r="AC10" s="16" t="n">
         <v>214664967</v>
       </c>
     </row>
@@ -1358,7 +1358,7 @@
       <c r="AB11" s="16" t="n">
         <v>383430473</v>
       </c>
-      <c r="AC11" t="n">
+      <c r="AC11" s="16" t="n">
         <v>642526250</v>
       </c>
     </row>
@@ -1447,7 +1447,7 @@
       <c r="AB12" s="16" t="n">
         <v>383777304</v>
       </c>
-      <c r="AC12" t="n">
+      <c r="AC12" s="16" t="n">
         <v>812275099</v>
       </c>
     </row>
@@ -1536,7 +1536,7 @@
       <c r="AB13" s="16" t="n">
         <v>895484742</v>
       </c>
-      <c r="AC13" t="n">
+      <c r="AC13" s="16" t="n">
         <v>769838000</v>
       </c>
     </row>
@@ -1625,7 +1625,7 @@
       <c r="AB14" s="16" t="n">
         <v>383706634</v>
       </c>
-      <c r="AC14" t="n">
+      <c r="AC14" s="16" t="n">
         <v>215078405</v>
       </c>
     </row>
@@ -1714,7 +1714,7 @@
       <c r="AB15" s="16" t="n">
         <v>299358039</v>
       </c>
-      <c r="AC15" t="n">
+      <c r="AC15" s="16" t="n">
         <v>855083764</v>
       </c>
     </row>
@@ -1803,7 +1803,7 @@
       <c r="AB16" s="16" t="n">
         <v>641083108</v>
       </c>
-      <c r="AC16" t="n">
+      <c r="AC16" s="16" t="n">
         <v>596847209</v>
       </c>
     </row>
@@ -1892,7 +1892,7 @@
       <c r="AB17" s="16" t="n">
         <v>638611240</v>
       </c>
-      <c r="AC17" t="n">
+      <c r="AC17" s="16" t="n">
         <v>593741421</v>
       </c>
     </row>
@@ -1981,7 +1981,7 @@
       <c r="AB18" s="16" t="n">
         <v>299282489</v>
       </c>
-      <c r="AC18" t="n">
+      <c r="AC18" s="16" t="n">
         <v>685249089</v>
       </c>
     </row>
@@ -2070,7 +2070,7 @@
       <c r="AB19" s="16" t="n">
         <v>896838104</v>
       </c>
-      <c r="AC19" t="n">
+      <c r="AC19" s="16" t="n">
         <v>770365725</v>
       </c>
     </row>
@@ -2159,7 +2159,7 @@
       <c r="AB20" s="16" t="n">
         <v>593741421</v>
       </c>
-      <c r="AC20" t="n">
+      <c r="AC20" s="16" t="n">
         <v>727503250</v>
       </c>
     </row>
@@ -2248,7 +2248,7 @@
       <c r="AB21" s="16" t="n">
         <v>854216837</v>
       </c>
-      <c r="AC21" t="n">
+      <c r="AC21" s="16" t="n">
         <v>554537336</v>
       </c>
     </row>
@@ -2337,7 +2337,7 @@
       <c r="AB22" s="16" t="n">
         <v>811569475</v>
       </c>
-      <c r="AC22" t="n">
+      <c r="AC22" s="16" t="n">
         <v>300220027</v>
       </c>
     </row>
@@ -2426,7 +2426,7 @@
       <c r="AB23" s="16" t="n">
         <v>425053154</v>
       </c>
-      <c r="AC23" t="n">
+      <c r="AC23" s="16" t="n">
         <v>342191284</v>
       </c>
     </row>
@@ -2515,7 +2515,7 @@
       <c r="AB24" s="16" t="n">
         <v>596847209</v>
       </c>
-      <c r="AC24" t="n">
+      <c r="AC24" s="16" t="n">
         <v>812852847</v>
       </c>
     </row>
@@ -2604,7 +2604,7 @@
       <c r="AB25" s="16" t="n">
         <v>596298654</v>
       </c>
-      <c r="AC25" t="n">
+      <c r="AC25" s="16" t="n">
         <v>769635432</v>
       </c>
     </row>
@@ -2693,7 +2693,7 @@
       <c r="AB26" s="16" t="n">
         <v>298649655</v>
       </c>
-      <c r="AC26" t="n">
+      <c r="AC26" s="16" t="n">
         <v>895484742</v>
       </c>
     </row>
@@ -2782,7 +2782,7 @@
       <c r="AB27" s="16" t="n">
         <v>593165314</v>
       </c>
-      <c r="AC27" t="n">
+      <c r="AC27" s="16" t="n">
         <v>812575223</v>
       </c>
     </row>
@@ -2871,7 +2871,7 @@
       <c r="AB28" s="16" t="n">
         <v>596699961</v>
       </c>
-      <c r="AC28" t="n">
+      <c r="AC28" s="16" t="n">
         <v>425053154</v>
       </c>
     </row>
@@ -2945,7 +2945,7 @@
       <c r="AB29" s="16" t="n">
         <v>638500512</v>
       </c>
-      <c r="AC29" t="n">
+      <c r="AC29" s="16" t="n">
         <v>583006680</v>
       </c>
     </row>
@@ -3007,7 +3007,7 @@
       <c r="X30" s="16" t="n">
         <v>338368991</v>
       </c>
-      <c r="AC30" t="n">
+      <c r="AC30" s="16" t="n">
         <v>639980368</v>
       </c>
     </row>

--- a/data_C.xlsx
+++ b/data_C.xlsx
@@ -755,7 +755,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC38"/>
+  <dimension ref="A1:AD38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
@@ -923,6 +923,11 @@
           <t>#61</t>
         </is>
       </c>
+      <c r="AD1" s="16" t="inlineStr">
+        <is>
+          <t>#62</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="4" t="inlineStr">
@@ -1183,6 +1188,9 @@
       <c r="AC9" s="16" t="n">
         <v>341886090</v>
       </c>
+      <c r="AD9" s="16" t="n">
+        <v>258210827</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="16" t="n">
@@ -1272,6 +1280,9 @@
       <c r="AC10" s="16" t="n">
         <v>214664967</v>
       </c>
+      <c r="AD10" s="16" t="n">
+        <v>300739814</v>
+      </c>
     </row>
     <row r="11" ht="15.15" customFormat="1" customHeight="1" s="2" thickBot="1">
       <c r="A11" s="2" t="n">
@@ -1361,6 +1372,9 @@
       <c r="AC11" s="16" t="n">
         <v>642526250</v>
       </c>
+      <c r="AD11" s="16" t="n">
+        <v>600501730</v>
+      </c>
     </row>
     <row r="12" ht="15.15" customHeight="1" s="26" thickTop="1">
       <c r="A12" s="16" t="n">
@@ -1450,6 +1464,9 @@
       <c r="AC12" s="16" t="n">
         <v>812275099</v>
       </c>
+      <c r="AD12" s="16" t="n">
+        <v>855605195</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="16" t="n">
@@ -1539,6 +1556,9 @@
       <c r="AC13" s="16" t="n">
         <v>769838000</v>
       </c>
+      <c r="AD13" s="16" t="n">
+        <v>428235728</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="16" t="n">
@@ -1628,6 +1648,9 @@
       <c r="AC14" s="16" t="n">
         <v>215078405</v>
       </c>
+      <c r="AD14" s="16" t="n">
+        <v>941276556</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="16" t="n">
@@ -1717,6 +1740,9 @@
       <c r="AC15" s="16" t="n">
         <v>855083764</v>
       </c>
+      <c r="AD15" s="16" t="n">
+        <v>898840540</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="16" t="n">
@@ -1806,6 +1832,9 @@
       <c r="AC16" s="16" t="n">
         <v>596847209</v>
       </c>
+      <c r="AD16" s="16" t="n">
+        <v>728300252</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="16" t="n">
@@ -1895,6 +1924,9 @@
       <c r="AC17" s="16" t="n">
         <v>593741421</v>
       </c>
+      <c r="AD17" s="16" t="n">
+        <v>685862880</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="16" t="n">
@@ -1984,6 +2016,9 @@
       <c r="AC18" s="16" t="n">
         <v>685249089</v>
       </c>
+      <c r="AD18" s="16" t="n">
+        <v>770968776</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="16" t="n">
@@ -2073,6 +2108,9 @@
       <c r="AC19" s="16" t="n">
         <v>770365725</v>
       </c>
+      <c r="AD19" s="16" t="n">
+        <v>813634467</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="16" t="n">
@@ -2162,6 +2200,9 @@
       <c r="AC20" s="16" t="n">
         <v>727503250</v>
       </c>
+      <c r="AD20" s="16" t="n">
+        <v>771229540</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="16" t="n">
@@ -2251,6 +2292,9 @@
       <c r="AC21" s="16" t="n">
         <v>554537336</v>
       </c>
+      <c r="AD21" s="16" t="n">
+        <v>428134477</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="16" t="n">
@@ -2340,6 +2384,9 @@
       <c r="AC22" s="16" t="n">
         <v>300220027</v>
       </c>
+      <c r="AD22" s="16" t="n">
+        <v>598654441</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="16" t="n">
@@ -2429,6 +2476,9 @@
       <c r="AC23" s="16" t="n">
         <v>342191284</v>
       </c>
+      <c r="AD23" s="16" t="n">
+        <v>470761029</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="16" t="n">
@@ -2518,6 +2568,9 @@
       <c r="AC24" s="16" t="n">
         <v>812852847</v>
       </c>
+      <c r="AD24" s="16" t="n">
+        <v>343754564</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="16" t="n">
@@ -2607,6 +2660,9 @@
       <c r="AC25" s="16" t="n">
         <v>769635432</v>
       </c>
+      <c r="AD25" s="16" t="n">
+        <v>300716466</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="16" t="n">
@@ -2696,6 +2752,9 @@
       <c r="AC26" s="16" t="n">
         <v>895484742</v>
       </c>
+      <c r="AD26" s="16" t="n">
+        <v>470681025</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="16" t="n">
@@ -2785,6 +2844,9 @@
       <c r="AC27" s="16" t="n">
         <v>812575223</v>
       </c>
+      <c r="AD27" s="16" t="n">
+        <v>555880804</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="16" t="n">
@@ -2873,6 +2935,9 @@
       </c>
       <c r="AC28" s="16" t="n">
         <v>425053154</v>
+      </c>
+      <c r="AD28" s="16" t="n">
+        <v>513773053</v>
       </c>
     </row>
     <row r="29" ht="15.15" customHeight="1" s="26" thickBot="1">

--- a/data_C.xlsx
+++ b/data_C.xlsx
@@ -1281,7 +1281,7 @@
         <v>214664967</v>
       </c>
       <c r="AD10" s="16" t="n">
-        <v>300739814</v>
+        <v>941276556</v>
       </c>
     </row>
     <row r="11" ht="15.15" customFormat="1" customHeight="1" s="2" thickBot="1">
@@ -1373,7 +1373,7 @@
         <v>642526250</v>
       </c>
       <c r="AD11" s="16" t="n">
-        <v>600501730</v>
+        <v>728300252</v>
       </c>
     </row>
     <row r="12" ht="15.15" customHeight="1" s="26" thickTop="1">
@@ -1465,7 +1465,7 @@
         <v>812275099</v>
       </c>
       <c r="AD12" s="16" t="n">
-        <v>855605195</v>
+        <v>898840540</v>
       </c>
     </row>
     <row r="13">
@@ -1557,7 +1557,7 @@
         <v>769838000</v>
       </c>
       <c r="AD13" s="16" t="n">
-        <v>428235728</v>
+        <v>770968776</v>
       </c>
     </row>
     <row r="14">
@@ -1649,7 +1649,7 @@
         <v>215078405</v>
       </c>
       <c r="AD14" s="16" t="n">
-        <v>941276556</v>
+        <v>813634467</v>
       </c>
     </row>
     <row r="15">
@@ -1741,7 +1741,7 @@
         <v>855083764</v>
       </c>
       <c r="AD15" s="16" t="n">
-        <v>898840540</v>
+        <v>771229540</v>
       </c>
     </row>
     <row r="16">
@@ -1833,7 +1833,7 @@
         <v>596847209</v>
       </c>
       <c r="AD16" s="16" t="n">
-        <v>728300252</v>
+        <v>343754564</v>
       </c>
     </row>
     <row r="17">
@@ -1925,7 +1925,7 @@
         <v>593741421</v>
       </c>
       <c r="AD17" s="16" t="n">
-        <v>685862880</v>
+        <v>555880804</v>
       </c>
     </row>
     <row r="18">
@@ -2017,7 +2017,7 @@
         <v>685249089</v>
       </c>
       <c r="AD18" s="16" t="n">
-        <v>770968776</v>
+        <v>513773053</v>
       </c>
     </row>
     <row r="19">
@@ -2109,7 +2109,7 @@
         <v>770365725</v>
       </c>
       <c r="AD19" s="16" t="n">
-        <v>813634467</v>
+        <v>598654441</v>
       </c>
     </row>
     <row r="20">
@@ -2201,7 +2201,7 @@
         <v>727503250</v>
       </c>
       <c r="AD20" s="16" t="n">
-        <v>771229540</v>
+        <v>855605195</v>
       </c>
     </row>
     <row r="21">
@@ -2293,7 +2293,7 @@
         <v>554537336</v>
       </c>
       <c r="AD21" s="16" t="n">
-        <v>428134477</v>
+        <v>300796704</v>
       </c>
     </row>
     <row r="22">
@@ -2385,7 +2385,7 @@
         <v>300220027</v>
       </c>
       <c r="AD22" s="16" t="n">
-        <v>598654441</v>
+        <v>428560558</v>
       </c>
     </row>
     <row r="23">
@@ -2477,7 +2477,7 @@
         <v>342191284</v>
       </c>
       <c r="AD23" s="16" t="n">
-        <v>470761029</v>
+        <v>300924500</v>
       </c>
     </row>
     <row r="24">
@@ -2569,7 +2569,7 @@
         <v>812852847</v>
       </c>
       <c r="AD24" s="16" t="n">
-        <v>343754564</v>
+        <v>770952187</v>
       </c>
     </row>
     <row r="25">
@@ -2661,7 +2661,7 @@
         <v>769635432</v>
       </c>
       <c r="AD25" s="16" t="n">
-        <v>300716466</v>
+        <v>598777305</v>
       </c>
     </row>
     <row r="26">
@@ -2753,7 +2753,7 @@
         <v>895484742</v>
       </c>
       <c r="AD26" s="16" t="n">
-        <v>470681025</v>
+        <v>598744866</v>
       </c>
     </row>
     <row r="27">
@@ -2845,7 +2845,7 @@
         <v>812575223</v>
       </c>
       <c r="AD27" s="16" t="n">
-        <v>555880804</v>
+        <v>770365725</v>
       </c>
     </row>
     <row r="28">
@@ -2937,7 +2937,7 @@
         <v>425053154</v>
       </c>
       <c r="AD28" s="16" t="n">
-        <v>513773053</v>
+        <v>470761029</v>
       </c>
     </row>
     <row r="29" ht="15.15" customHeight="1" s="26" thickBot="1">

--- a/data_C.xlsx
+++ b/data_C.xlsx
@@ -755,7 +755,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD38"/>
+  <dimension ref="A1:AE38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
@@ -928,6 +928,11 @@
           <t>#62</t>
         </is>
       </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>#63</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="4" t="inlineStr">
@@ -1191,6 +1196,9 @@
       <c r="AD9" s="16" t="n">
         <v>258210827</v>
       </c>
+      <c r="AE9" t="n">
+        <v>899432749</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="16" t="n">
@@ -1283,6 +1291,9 @@
       <c r="AD10" s="16" t="n">
         <v>941276556</v>
       </c>
+      <c r="AE10" t="n">
+        <v>259269718</v>
+      </c>
     </row>
     <row r="11" ht="15.15" customFormat="1" customHeight="1" s="2" thickBot="1">
       <c r="A11" s="2" t="n">
@@ -1375,6 +1386,9 @@
       <c r="AD11" s="16" t="n">
         <v>728300252</v>
       </c>
+      <c r="AE11" t="n">
+        <v>216455159</v>
+      </c>
     </row>
     <row r="12" ht="15.15" customHeight="1" s="26" thickTop="1">
       <c r="A12" s="16" t="n">
@@ -1467,6 +1481,9 @@
       <c r="AD12" s="16" t="n">
         <v>898840540</v>
       </c>
+      <c r="AE12" t="n">
+        <v>556952142</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="16" t="n">
@@ -1559,6 +1576,9 @@
       <c r="AD13" s="16" t="n">
         <v>770968776</v>
       </c>
+      <c r="AE13" t="n">
+        <v>686866166</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="16" t="n">
@@ -1651,6 +1671,9 @@
       <c r="AD14" s="16" t="n">
         <v>813634467</v>
       </c>
+      <c r="AE14" t="n">
+        <v>425053154</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="16" t="n">
@@ -1743,6 +1766,9 @@
       <c r="AD15" s="16" t="n">
         <v>771229540</v>
       </c>
+      <c r="AE15" t="n">
+        <v>941276556</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="16" t="n">
@@ -1835,6 +1861,9 @@
       <c r="AD16" s="16" t="n">
         <v>343754564</v>
       </c>
+      <c r="AE16" t="n">
+        <v>514347197</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="16" t="n">
@@ -1927,6 +1956,9 @@
       <c r="AD17" s="16" t="n">
         <v>555880804</v>
       </c>
+      <c r="AE17" t="n">
+        <v>643882665</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="16" t="n">
@@ -2019,6 +2051,9 @@
       <c r="AD18" s="16" t="n">
         <v>513773053</v>
       </c>
+      <c r="AE18" t="n">
+        <v>599343270</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="16" t="n">
@@ -2111,6 +2146,9 @@
       <c r="AD19" s="16" t="n">
         <v>598654441</v>
       </c>
+      <c r="AE19" t="n">
+        <v>644034648</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="16" t="n">
@@ -2203,6 +2241,9 @@
       <c r="AD20" s="16" t="n">
         <v>855605195</v>
       </c>
+      <c r="AE20" t="n">
+        <v>343754564</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="16" t="n">
@@ -2295,6 +2336,9 @@
       <c r="AD21" s="16" t="n">
         <v>300796704</v>
       </c>
+      <c r="AE21" t="n">
+        <v>771844030</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="16" t="n">
@@ -2387,6 +2431,9 @@
       <c r="AD22" s="16" t="n">
         <v>428560558</v>
       </c>
+      <c r="AE22" t="n">
+        <v>771416130</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="16" t="n">
@@ -2479,6 +2526,9 @@
       <c r="AD23" s="16" t="n">
         <v>300924500</v>
       </c>
+      <c r="AE23" t="n">
+        <v>857125773</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="16" t="n">
@@ -2571,6 +2621,9 @@
       <c r="AD24" s="16" t="n">
         <v>770952187</v>
       </c>
+      <c r="AE24" t="n">
+        <v>813976385</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="16" t="n">
@@ -2663,6 +2716,9 @@
       <c r="AD25" s="16" t="n">
         <v>598777305</v>
       </c>
+      <c r="AE25" t="n">
+        <v>942203074</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="16" t="n">
@@ -2755,6 +2811,9 @@
       <c r="AD26" s="16" t="n">
         <v>598744866</v>
       </c>
+      <c r="AE26" t="n">
+        <v>599335905</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="16" t="n">
@@ -2847,6 +2906,9 @@
       <c r="AD27" s="16" t="n">
         <v>770365725</v>
       </c>
+      <c r="AE27" t="n">
+        <v>729493377</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="16" t="n">
@@ -2939,6 +3001,9 @@
       <c r="AD28" s="16" t="n">
         <v>470761029</v>
       </c>
+      <c r="AE28" t="n">
+        <v>599251560</v>
+      </c>
     </row>
     <row r="29" ht="15.15" customHeight="1" s="26" thickBot="1">
       <c r="A29" s="16" t="n">
@@ -3012,6 +3077,9 @@
       </c>
       <c r="AC29" s="16" t="n">
         <v>583006680</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>429444485</v>
       </c>
     </row>
     <row r="30" ht="15.15" customHeight="1" s="26" thickBot="1">

--- a/data_C.xlsx
+++ b/data_C.xlsx
@@ -928,7 +928,7 @@
           <t>#62</t>
         </is>
       </c>
-      <c r="AE1" t="inlineStr">
+      <c r="AE1" s="16" t="inlineStr">
         <is>
           <t>#63</t>
         </is>
@@ -1196,7 +1196,7 @@
       <c r="AD9" s="16" t="n">
         <v>258210827</v>
       </c>
-      <c r="AE9" t="n">
+      <c r="AE9" s="16" t="n">
         <v>899432749</v>
       </c>
     </row>
@@ -1289,9 +1289,9 @@
         <v>214664967</v>
       </c>
       <c r="AD10" s="16" t="n">
-        <v>941276556</v>
-      </c>
-      <c r="AE10" t="n">
+        <v>300739814</v>
+      </c>
+      <c r="AE10" s="16" t="n">
         <v>259269718</v>
       </c>
     </row>
@@ -1384,9 +1384,9 @@
         <v>642526250</v>
       </c>
       <c r="AD11" s="16" t="n">
-        <v>728300252</v>
-      </c>
-      <c r="AE11" t="n">
+        <v>600501730</v>
+      </c>
+      <c r="AE11" s="16" t="n">
         <v>216455159</v>
       </c>
     </row>
@@ -1479,9 +1479,9 @@
         <v>812275099</v>
       </c>
       <c r="AD12" s="16" t="n">
-        <v>898840540</v>
-      </c>
-      <c r="AE12" t="n">
+        <v>855605195</v>
+      </c>
+      <c r="AE12" s="16" t="n">
         <v>556952142</v>
       </c>
     </row>
@@ -1574,9 +1574,9 @@
         <v>769838000</v>
       </c>
       <c r="AD13" s="16" t="n">
-        <v>770968776</v>
-      </c>
-      <c r="AE13" t="n">
+        <v>428235728</v>
+      </c>
+      <c r="AE13" s="16" t="n">
         <v>686866166</v>
       </c>
     </row>
@@ -1669,9 +1669,9 @@
         <v>215078405</v>
       </c>
       <c r="AD14" s="16" t="n">
-        <v>813634467</v>
-      </c>
-      <c r="AE14" t="n">
+        <v>941276556</v>
+      </c>
+      <c r="AE14" s="16" t="n">
         <v>425053154</v>
       </c>
     </row>
@@ -1764,9 +1764,9 @@
         <v>855083764</v>
       </c>
       <c r="AD15" s="16" t="n">
-        <v>771229540</v>
-      </c>
-      <c r="AE15" t="n">
+        <v>898840540</v>
+      </c>
+      <c r="AE15" s="16" t="n">
         <v>941276556</v>
       </c>
     </row>
@@ -1859,9 +1859,9 @@
         <v>596847209</v>
       </c>
       <c r="AD16" s="16" t="n">
-        <v>343754564</v>
-      </c>
-      <c r="AE16" t="n">
+        <v>728300252</v>
+      </c>
+      <c r="AE16" s="16" t="n">
         <v>514347197</v>
       </c>
     </row>
@@ -1954,9 +1954,9 @@
         <v>593741421</v>
       </c>
       <c r="AD17" s="16" t="n">
-        <v>555880804</v>
-      </c>
-      <c r="AE17" t="n">
+        <v>685862880</v>
+      </c>
+      <c r="AE17" s="16" t="n">
         <v>643882665</v>
       </c>
     </row>
@@ -2049,9 +2049,9 @@
         <v>685249089</v>
       </c>
       <c r="AD18" s="16" t="n">
-        <v>513773053</v>
-      </c>
-      <c r="AE18" t="n">
+        <v>770968776</v>
+      </c>
+      <c r="AE18" s="16" t="n">
         <v>599343270</v>
       </c>
     </row>
@@ -2144,9 +2144,9 @@
         <v>770365725</v>
       </c>
       <c r="AD19" s="16" t="n">
-        <v>598654441</v>
-      </c>
-      <c r="AE19" t="n">
+        <v>813634467</v>
+      </c>
+      <c r="AE19" s="16" t="n">
         <v>644034648</v>
       </c>
     </row>
@@ -2239,9 +2239,9 @@
         <v>727503250</v>
       </c>
       <c r="AD20" s="16" t="n">
-        <v>855605195</v>
-      </c>
-      <c r="AE20" t="n">
+        <v>771229540</v>
+      </c>
+      <c r="AE20" s="16" t="n">
         <v>343754564</v>
       </c>
     </row>
@@ -2334,9 +2334,9 @@
         <v>554537336</v>
       </c>
       <c r="AD21" s="16" t="n">
-        <v>300796704</v>
-      </c>
-      <c r="AE21" t="n">
+        <v>428134477</v>
+      </c>
+      <c r="AE21" s="16" t="n">
         <v>771844030</v>
       </c>
     </row>
@@ -2429,9 +2429,9 @@
         <v>300220027</v>
       </c>
       <c r="AD22" s="16" t="n">
-        <v>428560558</v>
-      </c>
-      <c r="AE22" t="n">
+        <v>598654441</v>
+      </c>
+      <c r="AE22" s="16" t="n">
         <v>771416130</v>
       </c>
     </row>
@@ -2524,9 +2524,9 @@
         <v>342191284</v>
       </c>
       <c r="AD23" s="16" t="n">
-        <v>300924500</v>
-      </c>
-      <c r="AE23" t="n">
+        <v>470761029</v>
+      </c>
+      <c r="AE23" s="16" t="n">
         <v>857125773</v>
       </c>
     </row>
@@ -2619,9 +2619,9 @@
         <v>812852847</v>
       </c>
       <c r="AD24" s="16" t="n">
-        <v>770952187</v>
-      </c>
-      <c r="AE24" t="n">
+        <v>343754564</v>
+      </c>
+      <c r="AE24" s="16" t="n">
         <v>813976385</v>
       </c>
     </row>
@@ -2714,9 +2714,9 @@
         <v>769635432</v>
       </c>
       <c r="AD25" s="16" t="n">
-        <v>598777305</v>
-      </c>
-      <c r="AE25" t="n">
+        <v>300716466</v>
+      </c>
+      <c r="AE25" s="16" t="n">
         <v>942203074</v>
       </c>
     </row>
@@ -2809,9 +2809,9 @@
         <v>895484742</v>
       </c>
       <c r="AD26" s="16" t="n">
-        <v>598744866</v>
-      </c>
-      <c r="AE26" t="n">
+        <v>470681025</v>
+      </c>
+      <c r="AE26" s="16" t="n">
         <v>599335905</v>
       </c>
     </row>
@@ -2904,9 +2904,9 @@
         <v>812575223</v>
       </c>
       <c r="AD27" s="16" t="n">
-        <v>770365725</v>
-      </c>
-      <c r="AE27" t="n">
+        <v>555880804</v>
+      </c>
+      <c r="AE27" s="16" t="n">
         <v>729493377</v>
       </c>
     </row>
@@ -2999,9 +2999,9 @@
         <v>425053154</v>
       </c>
       <c r="AD28" s="16" t="n">
-        <v>470761029</v>
-      </c>
-      <c r="AE28" t="n">
+        <v>513773053</v>
+      </c>
+      <c r="AE28" s="16" t="n">
         <v>599251560</v>
       </c>
     </row>
@@ -3078,7 +3078,7 @@
       <c r="AC29" s="16" t="n">
         <v>583006680</v>
       </c>
-      <c r="AE29" t="n">
+      <c r="AE29" s="16" t="n">
         <v>429444485</v>
       </c>
     </row>
